--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>21.8540348149702</v>
+        <v>0.311475</v>
       </c>
       <c r="N2">
-        <v>21.8540348149702</v>
+        <v>0.9344250000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01169307534557625</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01169307534557625</v>
       </c>
       <c r="Q2">
-        <v>3096.420034271171</v>
+        <v>46.7322857669</v>
       </c>
       <c r="R2">
-        <v>3096.420034271171</v>
+        <v>420.5905719021</v>
       </c>
       <c r="S2">
-        <v>0.4220481671659174</v>
+        <v>0.00485555814914917</v>
       </c>
       <c r="T2">
-        <v>0.4220481671659174</v>
+        <v>0.004855558149149169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.8540348149702</v>
+        <v>25.20357766666666</v>
       </c>
       <c r="N3">
-        <v>21.8540348149702</v>
+        <v>75.610733</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9461668918353521</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.946166891835352</v>
       </c>
       <c r="Q3">
-        <v>1484.362920480928</v>
+        <v>3781.429629559114</v>
       </c>
       <c r="R3">
-        <v>1484.362920480928</v>
+        <v>34032.86666603203</v>
       </c>
       <c r="S3">
-        <v>0.2023215981889492</v>
+        <v>0.3928964986823897</v>
       </c>
       <c r="T3">
-        <v>0.2023215981889492</v>
+        <v>0.3928964986823897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.2433905747086</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>91.2433905747086</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.2717910776365635</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.2717910776365635</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>21.8540348149702</v>
+        <v>1.122507666666667</v>
       </c>
       <c r="N4">
-        <v>21.8540348149702</v>
+        <v>3.367523</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04214003281907161</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0421400328190716</v>
       </c>
       <c r="Q4">
-        <v>1994.036234255605</v>
+        <v>168.4159211949684</v>
       </c>
       <c r="R4">
-        <v>1994.036234255605</v>
+        <v>1515.743290754716</v>
       </c>
       <c r="S4">
-        <v>0.2717910776365635</v>
+        <v>0.01749867966406856</v>
       </c>
       <c r="T4">
-        <v>0.2717910776365635</v>
+        <v>0.01749867966406855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,551 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>68.382243</v>
+      </c>
+      <c r="H5">
+        <v>205.146729</v>
+      </c>
+      <c r="I5">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J5">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.311475</v>
+      </c>
+      <c r="N5">
+        <v>0.9344250000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.01169307534557625</v>
+      </c>
+      <c r="P5">
+        <v>0.01169307534557625</v>
+      </c>
+      <c r="Q5">
+        <v>21.299359138425</v>
+      </c>
+      <c r="R5">
+        <v>191.694232245825</v>
+      </c>
+      <c r="S5">
+        <v>0.002213036985866544</v>
+      </c>
+      <c r="T5">
+        <v>0.002213036985866543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>34.8599992401179</v>
-      </c>
-      <c r="H5">
-        <v>34.8599992401179</v>
-      </c>
-      <c r="I5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="J5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>21.8540348149702</v>
-      </c>
-      <c r="N5">
-        <v>21.8540348149702</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>761.8316370433713</v>
-      </c>
-      <c r="R5">
-        <v>761.8316370433713</v>
-      </c>
-      <c r="S5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="T5">
-        <v>0.1038391570085698</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>68.382243</v>
+      </c>
+      <c r="H6">
+        <v>205.146729</v>
+      </c>
+      <c r="I6">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J6">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>25.20357766666666</v>
+      </c>
+      <c r="N6">
+        <v>75.610733</v>
+      </c>
+      <c r="O6">
+        <v>0.9461668918353521</v>
+      </c>
+      <c r="P6">
+        <v>0.946166891835352</v>
+      </c>
+      <c r="Q6">
+        <v>1723.477172471373</v>
+      </c>
+      <c r="R6">
+        <v>15511.29455224236</v>
+      </c>
+      <c r="S6">
+        <v>0.1790719947106295</v>
+      </c>
+      <c r="T6">
+        <v>0.1790719947106295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>68.382243</v>
+      </c>
+      <c r="H7">
+        <v>205.146729</v>
+      </c>
+      <c r="I7">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J7">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>1.122507666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.367523</v>
+      </c>
+      <c r="O7">
+        <v>0.04214003281907161</v>
+      </c>
+      <c r="P7">
+        <v>0.0421400328190716</v>
+      </c>
+      <c r="Q7">
+        <v>76.759592031363</v>
+      </c>
+      <c r="R7">
+        <v>690.836328282267</v>
+      </c>
+      <c r="S7">
+        <v>0.007975442598128541</v>
+      </c>
+      <c r="T7">
+        <v>0.007975442598128537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>104.737245</v>
+      </c>
+      <c r="H8">
+        <v>314.211735</v>
+      </c>
+      <c r="I8">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J8">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.311475</v>
+      </c>
+      <c r="N8">
+        <v>0.9344250000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.01169307534557625</v>
+      </c>
+      <c r="P8">
+        <v>0.01169307534557625</v>
+      </c>
+      <c r="Q8">
+        <v>32.623033386375</v>
+      </c>
+      <c r="R8">
+        <v>293.607300477375</v>
+      </c>
+      <c r="S8">
+        <v>0.003389584588249989</v>
+      </c>
+      <c r="T8">
+        <v>0.003389584588249988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>104.737245</v>
+      </c>
+      <c r="H9">
+        <v>314.211735</v>
+      </c>
+      <c r="I9">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J9">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>25.20357766666666</v>
+      </c>
+      <c r="N9">
+        <v>75.610733</v>
+      </c>
+      <c r="O9">
+        <v>0.9461668918353521</v>
+      </c>
+      <c r="P9">
+        <v>0.946166891835352</v>
+      </c>
+      <c r="Q9">
+        <v>2639.753288950194</v>
+      </c>
+      <c r="R9">
+        <v>23757.77960055175</v>
+      </c>
+      <c r="S9">
+        <v>0.2742745274185567</v>
+      </c>
+      <c r="T9">
+        <v>0.2742745274185566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>104.737245</v>
+      </c>
+      <c r="H10">
+        <v>314.211735</v>
+      </c>
+      <c r="I10">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J10">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.122507666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.367523</v>
+      </c>
+      <c r="O10">
+        <v>0.04214003281907161</v>
+      </c>
+      <c r="P10">
+        <v>0.0421400328190716</v>
+      </c>
+      <c r="Q10">
+        <v>117.568360498045</v>
+      </c>
+      <c r="R10">
+        <v>1058.115244482405</v>
+      </c>
+      <c r="S10">
+        <v>0.01221553796332222</v>
+      </c>
+      <c r="T10">
+        <v>0.01221553796332222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>38.15794</v>
+      </c>
+      <c r="H11">
+        <v>114.47382</v>
+      </c>
+      <c r="I11">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J11">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.311475</v>
+      </c>
+      <c r="N11">
+        <v>0.9344250000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.01169307534557625</v>
+      </c>
+      <c r="P11">
+        <v>0.01169307534557625</v>
+      </c>
+      <c r="Q11">
+        <v>11.8852443615</v>
+      </c>
+      <c r="R11">
+        <v>106.9671992535</v>
+      </c>
+      <c r="S11">
+        <v>0.001234895622310553</v>
+      </c>
+      <c r="T11">
+        <v>0.001234895622310552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>38.15794</v>
+      </c>
+      <c r="H12">
+        <v>114.47382</v>
+      </c>
+      <c r="I12">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J12">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.20357766666666</v>
+      </c>
+      <c r="N12">
+        <v>75.610733</v>
+      </c>
+      <c r="O12">
+        <v>0.9461668918353521</v>
+      </c>
+      <c r="P12">
+        <v>0.946166891835352</v>
+      </c>
+      <c r="Q12">
+        <v>961.7166043900066</v>
+      </c>
+      <c r="R12">
+        <v>8655.449439510059</v>
+      </c>
+      <c r="S12">
+        <v>0.09992387102377616</v>
+      </c>
+      <c r="T12">
+        <v>0.09992387102377612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>38.15794</v>
+      </c>
+      <c r="H13">
+        <v>114.47382</v>
+      </c>
+      <c r="I13">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J13">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.122507666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.367523</v>
+      </c>
+      <c r="O13">
+        <v>0.04214003281907161</v>
+      </c>
+      <c r="P13">
+        <v>0.0421400328190716</v>
+      </c>
+      <c r="Q13">
+        <v>42.83258019420667</v>
+      </c>
+      <c r="R13">
+        <v>385.49322174786</v>
+      </c>
+      <c r="S13">
+        <v>0.004450372593552291</v>
+      </c>
+      <c r="T13">
+        <v>0.004450372593552289</v>
       </c>
     </row>
   </sheetData>
